--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="224">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -572,6 +572,120 @@
   </si>
   <si>
     <t>320017963461</t>
+  </si>
+  <si>
+    <t>320017963472</t>
+  </si>
+  <si>
+    <t>320017963483</t>
+  </si>
+  <si>
+    <t>320017963510</t>
+  </si>
+  <si>
+    <t>320017963531</t>
+  </si>
+  <si>
+    <t>320017963575</t>
+  </si>
+  <si>
+    <t>320017963597</t>
+  </si>
+  <si>
+    <t>320017963623</t>
+  </si>
+  <si>
+    <t>320017963645</t>
+  </si>
+  <si>
+    <t>320017963678</t>
+  </si>
+  <si>
+    <t>320017963690</t>
+  </si>
+  <si>
+    <t>320017963737</t>
+  </si>
+  <si>
+    <t>320017963759</t>
+  </si>
+  <si>
+    <t>320017963792</t>
+  </si>
+  <si>
+    <t>320017963807</t>
+  </si>
+  <si>
+    <t>320017963830</t>
+  </si>
+  <si>
+    <t>320017963851</t>
+  </si>
+  <si>
+    <t>320017963895</t>
+  </si>
+  <si>
+    <t>320017963910</t>
+  </si>
+  <si>
+    <t>320017963943</t>
+  </si>
+  <si>
+    <t>320017963965</t>
+  </si>
+  <si>
+    <t>320017963998</t>
+  </si>
+  <si>
+    <t>320017964012</t>
+  </si>
+  <si>
+    <t>320017964056</t>
+  </si>
+  <si>
+    <t>320017964078</t>
+  </si>
+  <si>
+    <t>320017964104</t>
+  </si>
+  <si>
+    <t>320017964126</t>
+  </si>
+  <si>
+    <t>320017964159</t>
+  </si>
+  <si>
+    <t>320017964170</t>
+  </si>
+  <si>
+    <t>320017964218</t>
+  </si>
+  <si>
+    <t>320017964230</t>
+  </si>
+  <si>
+    <t>320017964284</t>
+  </si>
+  <si>
+    <t>320017964300</t>
+  </si>
+  <si>
+    <t>320017964332</t>
+  </si>
+  <si>
+    <t>320017964343</t>
+  </si>
+  <si>
+    <t>$253.80</t>
+  </si>
+  <si>
+    <t>320017964354</t>
+  </si>
+  <si>
+    <t>320017964365</t>
+  </si>
+  <si>
+    <t>320017964376</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1189,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -1242,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1295,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1348,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1401,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1454,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1507,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1560,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1613,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1666,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1719,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1772,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -1825,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -1878,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -1931,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -1984,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="Q18" t="s">
         <v>69</v>
@@ -2037,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -2090,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -2143,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q21" t="s">
         <v>67</v>
@@ -2196,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="Q22" t="s">
         <v>71</v>
@@ -2249,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
@@ -2302,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="Q24" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -2355,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2408,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="249">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -686,6 +686,81 @@
   </si>
   <si>
     <t>320017964376</t>
+  </si>
+  <si>
+    <t>320017964582</t>
+  </si>
+  <si>
+    <t>320017964593</t>
+  </si>
+  <si>
+    <t>320017964620</t>
+  </si>
+  <si>
+    <t>320017964641</t>
+  </si>
+  <si>
+    <t>320017964685</t>
+  </si>
+  <si>
+    <t>320017964700</t>
+  </si>
+  <si>
+    <t>320017964733</t>
+  </si>
+  <si>
+    <t>320017964755</t>
+  </si>
+  <si>
+    <t>320017964788</t>
+  </si>
+  <si>
+    <t>320017964803</t>
+  </si>
+  <si>
+    <t>320017964847</t>
+  </si>
+  <si>
+    <t>320017964869</t>
+  </si>
+  <si>
+    <t>320017964891</t>
+  </si>
+  <si>
+    <t>320017964917</t>
+  </si>
+  <si>
+    <t>320017964940</t>
+  </si>
+  <si>
+    <t>320017964961</t>
+  </si>
+  <si>
+    <t>320017965008</t>
+  </si>
+  <si>
+    <t>320017965020</t>
+  </si>
+  <si>
+    <t>320017965052</t>
+  </si>
+  <si>
+    <t>320017965074</t>
+  </si>
+  <si>
+    <t>320017965100</t>
+  </si>
+  <si>
+    <t>320017965111</t>
+  </si>
+  <si>
+    <t>320017965122</t>
+  </si>
+  <si>
+    <t>320017965133</t>
+  </si>
+  <si>
+    <t>320017965144</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1303,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -1356,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1409,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1462,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1515,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1568,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1621,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1674,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1727,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1780,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1833,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1886,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -1939,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -1992,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -2045,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -2098,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Q18" t="s">
         <v>69</v>
@@ -2151,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -2204,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -2257,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="Q21" t="s">
         <v>67</v>
@@ -2310,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="Q22" t="s">
         <v>71</v>
@@ -2363,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
@@ -2416,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="Q24" t="s">
         <v>220</v>
@@ -2469,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2522,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="277">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -761,6 +761,90 @@
   </si>
   <si>
     <t>320017965144</t>
+  </si>
+  <si>
+    <t>320017965155</t>
+  </si>
+  <si>
+    <t>320017965166</t>
+  </si>
+  <si>
+    <t>320017965199</t>
+  </si>
+  <si>
+    <t>320017965214</t>
+  </si>
+  <si>
+    <t>320017965225</t>
+  </si>
+  <si>
+    <t>320017965258</t>
+  </si>
+  <si>
+    <t>320017965270</t>
+  </si>
+  <si>
+    <t>320017965317</t>
+  </si>
+  <si>
+    <t>320017965339</t>
+  </si>
+  <si>
+    <t>320017965361</t>
+  </si>
+  <si>
+    <t>320017965383</t>
+  </si>
+  <si>
+    <t>320017965410</t>
+  </si>
+  <si>
+    <t>320017965431</t>
+  </si>
+  <si>
+    <t>320017965475</t>
+  </si>
+  <si>
+    <t>320017965497</t>
+  </si>
+  <si>
+    <t>320017965523</t>
+  </si>
+  <si>
+    <t>320017965545</t>
+  </si>
+  <si>
+    <t>320017965578</t>
+  </si>
+  <si>
+    <t>320017965590</t>
+  </si>
+  <si>
+    <t>320017965637</t>
+  </si>
+  <si>
+    <t>320017965659</t>
+  </si>
+  <si>
+    <t>320017965681</t>
+  </si>
+  <si>
+    <t>320017965707</t>
+  </si>
+  <si>
+    <t>320017965730</t>
+  </si>
+  <si>
+    <t>320017965740</t>
+  </si>
+  <si>
+    <t>320017965751</t>
+  </si>
+  <si>
+    <t>320017965762</t>
+  </si>
+  <si>
+    <t>320017965773</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1378,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -1431,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1484,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1537,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1590,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1643,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1696,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1749,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1802,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1855,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1908,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1961,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -2014,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -2067,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -2120,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -2173,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Q18" t="s">
         <v>69</v>
@@ -2226,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -2279,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -2332,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="Q21" t="s">
         <v>67</v>
@@ -2385,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Q22" t="s">
         <v>71</v>
@@ -2438,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
@@ -2491,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="Q24" t="s">
         <v>220</v>
@@ -2544,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2597,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>
